--- a/Rates.xlsx
+++ b/Rates.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin Ochieng.BEN-ODHIAMBO\OneDrive - Kenbright\Attachments\projects\2026\February\PRMF Modeller\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kenbright-my.sharepoint.com/personal/rochieng_kenbright_africa/Documents/Attachments/projects/2026/February/PRMF Modeller/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0014C6-57D9-42B0-98A1-B2F1AF9E52CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{7D0014C6-57D9-42B0-98A1-B2F1AF9E52CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E102C36-66EC-42DA-BCAF-9B3D3B3EAD33}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FA1D70D3-7BAB-4E7E-86F2-BA64898169B7}"/>
   </bookViews>
@@ -76,7 +76,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -190,7 +190,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -207,10 +207,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -548,33 +551,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F282A009-C7DA-4B31-8D9E-0AECC9A2CD1D}">
   <dimension ref="A1:V80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.1796875" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="25.75" customHeight="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="H1" s="6" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
@@ -1569,20 +1573,20 @@
       </c>
     </row>
     <row r="36" spans="1:12" ht="21.9" customHeight="1">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="H36" s="6" t="s">
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="H36" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
@@ -1641,7 +1645,7 @@
       <c r="J38" s="4">
         <v>6328103.7085056407</v>
       </c>
-      <c r="K38" s="4">
+      <c r="K38" s="8">
         <v>7000812.0337884026</v>
       </c>
       <c r="L38" s="4">
@@ -1673,7 +1677,7 @@
       <c r="J39" s="4">
         <v>3239029.386344119</v>
       </c>
-      <c r="K39" s="4">
+      <c r="K39" s="8">
         <v>3583354.0267732101</v>
       </c>
       <c r="L39" s="4">
@@ -1705,7 +1709,7 @@
       <c r="J40" s="4">
         <v>2208521.6377729508</v>
       </c>
-      <c r="K40" s="4">
+      <c r="K40" s="8">
         <v>2443298.2724068076</v>
       </c>
       <c r="L40" s="4">
@@ -1737,7 +1741,7 @@
       <c r="J41" s="4">
         <v>1692578.2340539317</v>
       </c>
-      <c r="K41" s="4">
+      <c r="K41" s="8">
         <v>1872507.565444323</v>
       </c>
       <c r="L41" s="4">
@@ -1769,7 +1773,7 @@
       <c r="J42" s="4">
         <v>1382400.4116979351</v>
       </c>
-      <c r="K42" s="4">
+      <c r="K42" s="8">
         <v>1529356.3259275905</v>
       </c>
       <c r="L42" s="4">
@@ -1801,7 +1805,7 @@
       <c r="J43" s="4">
         <v>1175056.9279428422</v>
       </c>
-      <c r="K43" s="4">
+      <c r="K43" s="8">
         <v>1299971.2173603594</v>
       </c>
       <c r="L43" s="4">
@@ -1833,7 +1837,7 @@
       <c r="J44" s="4">
         <v>1026436.0548006104</v>
       </c>
-      <c r="K44" s="4">
+      <c r="K44" s="8">
         <v>1135551.2196653502</v>
       </c>
       <c r="L44" s="4">
@@ -1865,7 +1869,7 @@
       <c r="J45" s="4">
         <v>914483.56337528711</v>
       </c>
-      <c r="K45" s="4">
+      <c r="K45" s="8">
         <v>1011697.6317209015</v>
       </c>
       <c r="L45" s="4">
@@ -1897,7 +1901,7 @@
       <c r="J46" s="4">
         <v>826948.70442369115</v>
       </c>
-      <c r="K46" s="4">
+      <c r="K46" s="8">
         <v>914857.38981705671</v>
       </c>
       <c r="L46" s="4">
@@ -1929,7 +1933,7 @@
       <c r="J47" s="4">
         <v>756482.58657995716</v>
       </c>
-      <c r="K47" s="4">
+      <c r="K47" s="8">
         <v>836900.37955003302</v>
       </c>
       <c r="L47" s="4">
@@ -1961,7 +1965,7 @@
       <c r="J48" s="4">
         <v>698410.15285260498</v>
       </c>
-      <c r="K48" s="4">
+      <c r="K48" s="8">
         <v>772654.56254115957</v>
       </c>
       <c r="L48" s="4">
@@ -1993,13 +1997,13 @@
       <c r="J49" s="4">
         <v>649616.15580792481</v>
       </c>
-      <c r="K49" s="4">
+      <c r="K49" s="8">
         <v>718673.52534230798</v>
       </c>
       <c r="L49" s="4">
         <v>1596595.5179649103</v>
       </c>
-      <c r="V49" s="7"/>
+      <c r="V49" s="6"/>
     </row>
     <row r="50" spans="1:22">
       <c r="A50" s="5">
@@ -2026,13 +2030,13 @@
       <c r="J50" s="4">
         <v>607945.28564236034</v>
       </c>
-      <c r="K50" s="4">
+      <c r="K50" s="8">
         <v>672572.83819310681</v>
       </c>
       <c r="L50" s="4">
         <v>1494178.8463024073</v>
       </c>
-      <c r="V50" s="7"/>
+      <c r="V50" s="6"/>
     </row>
     <row r="51" spans="1:22">
       <c r="A51" s="5">
@@ -2059,13 +2063,13 @@
       <c r="J51" s="4">
         <v>571859.37455497461</v>
       </c>
-      <c r="K51" s="4">
+      <c r="K51" s="8">
         <v>632650.81854427815</v>
       </c>
       <c r="L51" s="4">
         <v>1405488.6199453592</v>
       </c>
-      <c r="V51" s="7"/>
+      <c r="V51" s="6"/>
     </row>
     <row r="52" spans="1:22">
       <c r="A52" s="5">
@@ -2092,13 +2096,13 @@
       <c r="J52" s="4">
         <v>540231.70850878174</v>
       </c>
-      <c r="K52" s="4">
+      <c r="K52" s="8">
         <v>597660.97715479264</v>
       </c>
       <c r="L52" s="4">
         <v>1327755.6550220344</v>
       </c>
-      <c r="V52" s="7"/>
+      <c r="V52" s="6"/>
     </row>
     <row r="53" spans="1:22">
       <c r="A53" s="5">
@@ -2125,13 +2129,13 @@
       <c r="J53" s="4">
         <v>512218.46207017684</v>
       </c>
-      <c r="K53" s="4">
+      <c r="K53" s="8">
         <v>566669.78582692833</v>
       </c>
       <c r="L53" s="4">
         <v>1258906.0377401214</v>
       </c>
-      <c r="V53" s="7"/>
+      <c r="V53" s="6"/>
     </row>
     <row r="54" spans="1:22">
       <c r="A54" s="5">
@@ -2158,13 +2162,13 @@
       <c r="J54" s="4">
         <v>487175.50005227787</v>
       </c>
-      <c r="K54" s="4">
+      <c r="K54" s="8">
         <v>538964.63465803023</v>
       </c>
       <c r="L54" s="4">
         <v>1197356.6434449384</v>
       </c>
-      <c r="V54" s="7"/>
+      <c r="V54" s="6"/>
     </row>
     <row r="55" spans="1:22">
       <c r="A55" s="5">
@@ -2191,13 +2195,13 @@
       <c r="J55" s="4">
         <v>464602.90369415085</v>
       </c>
-      <c r="K55" s="4">
+      <c r="K55" s="8">
         <v>513992.4610816997</v>
       </c>
       <c r="L55" s="4">
         <v>1141878.7957159288</v>
       </c>
-      <c r="V55" s="7"/>
+      <c r="V55" s="6"/>
     </row>
     <row r="56" spans="1:22">
       <c r="A56" s="5">
@@ -2224,13 +2228,13 @@
       <c r="J56" s="4">
         <v>444107.00751922117</v>
       </c>
-      <c r="K56" s="4">
+      <c r="K56" s="8">
         <v>491317.75105887535</v>
       </c>
       <c r="L56" s="4">
         <v>1091504.9623729626</v>
       </c>
-      <c r="V56" s="7"/>
+      <c r="V56" s="6"/>
     </row>
     <row r="57" spans="1:22">
       <c r="A57" s="5">
@@ -2257,13 +2261,13 @@
       <c r="J57" s="4">
         <v>425373.81862914248</v>
       </c>
-      <c r="K57" s="4">
+      <c r="K57" s="8">
         <v>470593.13271284255</v>
       </c>
       <c r="L57" s="4">
         <v>1045463.426688106</v>
       </c>
-      <c r="V57" s="7"/>
+      <c r="V57" s="6"/>
     </row>
     <row r="58" spans="1:22">
       <c r="A58" s="5">
@@ -2290,13 +2294,13 @@
       <c r="J58" s="4">
         <v>408150.02481225366</v>
       </c>
-      <c r="K58" s="4">
+      <c r="K58" s="8">
         <v>451538.36550687964</v>
       </c>
       <c r="L58" s="4">
         <v>1003131.6100229316</v>
       </c>
-      <c r="V58" s="7"/>
+      <c r="V58" s="6"/>
     </row>
     <row r="59" spans="1:22">
       <c r="A59" s="5">
@@ -2323,13 +2327,13 @@
       <c r="J59" s="4">
         <v>392229.17738300993</v>
       </c>
-      <c r="K59" s="4">
+      <c r="K59" s="8">
         <v>433925.0542520489</v>
       </c>
       <c r="L59" s="4">
         <v>964002.11267211533</v>
       </c>
-      <c r="V59" s="7"/>
+      <c r="V59" s="6"/>
     </row>
     <row r="60" spans="1:22">
       <c r="A60" s="5">
@@ -2356,13 +2360,13 @@
       <c r="J60" s="4">
         <v>377441.47437527747</v>
       </c>
-      <c r="K60" s="4">
+      <c r="K60" s="8">
         <v>417565.34620404814</v>
       </c>
       <c r="L60" s="4">
         <v>927657.60348456551</v>
       </c>
-      <c r="V60" s="7"/>
+      <c r="V60" s="6"/>
     </row>
     <row r="61" spans="1:22">
       <c r="A61" s="5">
@@ -2389,13 +2393,13 @@
       <c r="J61" s="4">
         <v>363646.09451811737</v>
       </c>
-      <c r="K61" s="4">
+      <c r="K61" s="8">
         <v>402303.45010318689</v>
       </c>
       <c r="L61" s="4">
         <v>893751.97867575532</v>
       </c>
-      <c r="V61" s="7"/>
+      <c r="V61" s="6"/>
     </row>
     <row r="62" spans="1:22">
       <c r="A62" s="5">
@@ -2422,13 +2426,13 @@
       <c r="J62" s="4">
         <v>350725.36828866519</v>
       </c>
-      <c r="K62" s="4">
+      <c r="K62" s="8">
         <v>388009.18758172216</v>
       </c>
       <c r="L62" s="4">
         <v>861996.03572027478</v>
       </c>
-      <c r="V62" s="7"/>
+      <c r="V62" s="6"/>
     </row>
     <row r="63" spans="1:22">
       <c r="A63" s="5">
@@ -2455,13 +2459,13 @@
       <c r="J63" s="4">
         <v>338580.29193291167</v>
       </c>
-      <c r="K63" s="4">
+      <c r="K63" s="8">
         <v>374573.03030314355</v>
       </c>
       <c r="L63" s="4">
         <v>832146.44792666216</v>
       </c>
-      <c r="V63" s="7"/>
+      <c r="V63" s="6"/>
     </row>
     <row r="64" spans="1:22">
       <c r="A64" s="5">
@@ -2488,13 +2492,13 @@
       <c r="J64" s="4">
         <v>327127.03673543339</v>
       </c>
-      <c r="K64" s="4">
+      <c r="K64" s="8">
         <v>361902.23815023009</v>
       </c>
       <c r="L64" s="4">
         <v>803997.185087502</v>
       </c>
-      <c r="V64" s="7"/>
+      <c r="V64" s="6"/>
     </row>
     <row r="65" spans="1:22">
       <c r="A65" s="5">
@@ -2521,13 +2525,13 @@
       <c r="J65" s="4">
         <v>316294.20514934917</v>
       </c>
-      <c r="K65" s="4">
+      <c r="K65" s="8">
         <v>349917.82366822247</v>
       </c>
       <c r="L65" s="4">
         <v>777372.76972686453</v>
       </c>
-      <c r="V65" s="7"/>
+      <c r="V65" s="6"/>
     </row>
     <row r="66" spans="1:22">
       <c r="A66" s="5">
@@ -2554,13 +2558,13 @@
       <c r="J66" s="4">
         <v>306020.65389655979</v>
       </c>
-      <c r="K66" s="4">
+      <c r="K66" s="8">
         <v>338552.14374998765</v>
       </c>
       <c r="L66" s="4">
         <v>752122.92682019249</v>
       </c>
-      <c r="V66" s="7"/>
+      <c r="V66" s="6"/>
     </row>
     <row r="67" spans="1:22">
       <c r="A67" s="5">
@@ -2587,13 +2591,13 @@
       <c r="J67" s="4">
         <v>296253.75209375279</v>
       </c>
-      <c r="K67" s="4">
+      <c r="K67" s="8">
         <v>327746.97259231273</v>
       </c>
       <c r="L67" s="4">
         <v>728118.30269970535</v>
       </c>
-      <c r="V67" s="7"/>
+      <c r="V67" s="6"/>
     </row>
     <row r="68" spans="1:22">
       <c r="A68" s="5">
@@ -2620,13 +2624,13 @@
       <c r="J68" s="4">
         <v>286947.97648271488</v>
       </c>
-      <c r="K68" s="4">
+      <c r="K68" s="8">
         <v>317451.94759233954</v>
       </c>
       <c r="L68" s="4">
         <v>705247.01247864857</v>
       </c>
-      <c r="V68" s="7"/>
+      <c r="V68" s="6"/>
     </row>
     <row r="69" spans="1:22">
       <c r="A69" s="5">
@@ -2653,13 +2657,13 @@
       <c r="J69" s="4">
         <v>278063.77029575018</v>
       </c>
-      <c r="K69" s="4">
+      <c r="K69" s="8">
         <v>307623.30690480449</v>
       </c>
       <c r="L69" s="4">
         <v>683411.83542529633</v>
       </c>
-      <c r="V69" s="7"/>
+      <c r="V69" s="6"/>
     </row>
     <row r="70" spans="1:22">
       <c r="A70" s="5">
@@ -2686,13 +2690,13 @@
       <c r="J70" s="4">
         <v>269566.61006941518</v>
       </c>
-      <c r="K70" s="4">
+      <c r="K70" s="8">
         <v>298222.8570535169</v>
       </c>
       <c r="L70" s="4">
         <v>662527.9214223827</v>
       </c>
-      <c r="V70" s="7"/>
+      <c r="V70" s="6"/>
     </row>
     <row r="71" spans="1:22">
       <c r="A71" s="5">
@@ -2719,13 +2723,13 @@
       <c r="J71" s="4">
         <v>261426.23779471515</v>
       </c>
-      <c r="K71" s="4">
+      <c r="K71" s="8">
         <v>289217.12345537153</v>
       </c>
       <c r="L71" s="4">
         <v>642520.9037825769</v>
       </c>
-      <c r="V71" s="7"/>
+      <c r="V71" s="6"/>
     </row>
     <row r="72" spans="1:22">
       <c r="A72" s="5">
@@ -2752,13 +2756,13 @@
       <c r="J72" s="4">
         <v>253616.02550488926</v>
       </c>
-      <c r="K72" s="4">
+      <c r="K72" s="8">
         <v>280576.64746071264</v>
       </c>
       <c r="L72" s="4">
         <v>623325.33756273461</v>
       </c>
-      <c r="V72" s="7"/>
+      <c r="V72" s="6"/>
     </row>
     <row r="73" spans="1:22">
       <c r="A73" s="5">
@@ -2785,13 +2789,13 @@
       <c r="J73" s="4">
         <v>246112.44668728212</v>
       </c>
-      <c r="K73" s="4">
+      <c r="K73" s="8">
         <v>272275.40157370595</v>
       </c>
       <c r="L73" s="4">
         <v>604883.40042527474</v>
       </c>
-      <c r="V73" s="7"/>
+      <c r="V73" s="6"/>
     </row>
     <row r="74" spans="1:22">
       <c r="A74" s="5">
@@ -2818,13 +2822,13 @@
       <c r="J74" s="4">
         <v>238894.6344200242</v>
       </c>
-      <c r="K74" s="4">
+      <c r="K74" s="8">
         <v>264290.30061679112</v>
       </c>
       <c r="L74" s="4">
         <v>587143.80664764799</v>
       </c>
-      <c r="V74" s="7"/>
+      <c r="V74" s="6"/>
     </row>
     <row r="75" spans="1:22">
       <c r="A75" s="5">
@@ -2851,13 +2855,13 @@
       <c r="J75" s="4">
         <v>231944.01034370746</v>
       </c>
-      <c r="K75" s="4">
+      <c r="K75" s="8">
         <v>256600.79126023396</v>
       </c>
       <c r="L75" s="4">
         <v>570060.89522666472</v>
       </c>
-      <c r="V75" s="7"/>
+      <c r="V75" s="6"/>
     </row>
     <row r="76" spans="1:22">
       <c r="A76" s="5">
@@ -2884,13 +2888,13 @@
       <c r="J76" s="4">
         <v>225243.9718177059</v>
       </c>
-      <c r="K76" s="4">
+      <c r="K76" s="8">
         <v>249188.50592163706</v>
       </c>
       <c r="L76" s="4">
         <v>553593.86098626454</v>
       </c>
-      <c r="V76" s="7"/>
+      <c r="V76" s="6"/>
     </row>
     <row r="77" spans="1:22">
       <c r="A77" s="5">
@@ -2917,13 +2921,13 @@
       <c r="J77" s="4">
         <v>218779.62712290764</v>
       </c>
-      <c r="K77" s="4">
+      <c r="K77" s="8">
         <v>242036.96981942822</v>
       </c>
       <c r="L77" s="4">
         <v>537706.10377145361</v>
       </c>
-      <c r="V77" s="7"/>
+      <c r="V77" s="6"/>
     </row>
     <row r="78" spans="1:22">
       <c r="A78" s="5">
@@ -2950,13 +2954,13 @@
       <c r="J78" s="4">
         <v>212537.57053488278</v>
       </c>
-      <c r="K78" s="4">
+      <c r="K78" s="8">
         <v>235131.35213520849</v>
       </c>
       <c r="L78" s="4">
         <v>522364.67563389568</v>
       </c>
-      <c r="V78" s="7"/>
+      <c r="V78" s="6"/>
     </row>
     <row r="79" spans="1:22">
       <c r="A79" s="5">
@@ -2983,13 +2987,13 @@
       <c r="J79" s="4">
         <v>206505.69063488202</v>
       </c>
-      <c r="K79" s="4">
+      <c r="K79" s="8">
         <v>228458.25394727377</v>
       </c>
       <c r="L79" s="4">
         <v>507539.80970785278</v>
       </c>
-      <c r="V79" s="7"/>
+      <c r="V79" s="6"/>
     </row>
     <row r="80" spans="1:22">
       <c r="A80" s="5">
@@ -3016,13 +3020,13 @@
       <c r="J80" s="4">
         <v>200673.00644795835</v>
       </c>
-      <c r="K80" s="4">
+      <c r="K80" s="8">
         <v>222005.52694941848</v>
       </c>
       <c r="L80" s="4">
         <v>493204.51747829723</v>
       </c>
-      <c r="V80" s="7"/>
+      <c r="V80" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3036,18 +3040,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3228,6 +3232,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90DE3DDF-AC57-43A7-8557-CBF566437B9B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7384064-3253-48A9-98B6-F0A426C8E8F5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="0475259e-d04a-473a-8a9f-4fae96024e30"/>
@@ -3240,14 +3252,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90DE3DDF-AC57-43A7-8557-CBF566437B9B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
